--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,12 +595,228 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
       </c>
       <c r="R3" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>44421</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>20</v>
+      </c>
+      <c r="K4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>12</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E5" t="n">
+        <v>13</v>
+      </c>
+      <c r="F5" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>15</v>
+      </c>
+      <c r="K5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>25</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>12</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,16 +807,232 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
       </c>
       <c r="R6" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>12</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E7" t="n">
+        <v>13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>25</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>12</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>44418</v>
+      </c>
+      <c r="E8" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>600</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>25</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>44432</v>
+      </c>
+      <c r="E9" t="n">
+        <v>13</v>
+      </c>
+      <c r="F9" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Provincia del Elquí</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>560</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>25</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44418</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>15000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>15000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1033,6 +1033,78 @@
         <v>25</v>
       </c>
       <c r="R9" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>15</v>
+      </c>
+      <c r="K10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>25</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,16 +1095,88 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
       </c>
       <c r="R10" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E11" t="n">
+        <v>13</v>
+      </c>
+      <c r="F11" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>15</v>
+      </c>
+      <c r="K11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M11" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>25</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44418</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
         <v>15000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,16 +1167,88 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
       </c>
       <c r="R11" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M12" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>25</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,12 +1243,84 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
       </c>
       <c r="R12" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>44425</v>
+      </c>
+      <c r="E13" t="n">
+        <v>13</v>
+      </c>
+      <c r="F13" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>25</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="M13" t="n">
+        <v>14000</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>560</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>25</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44467</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44376</v>
+        <v>44467</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>15000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
         <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>14000</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44453</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
         <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44453</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44418</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44453</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
         <v>15000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44432</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14455</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
         <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
         <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44467</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
         <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44467</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44418</v>
+        <v>44340</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>15000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44340</v>
+        <v>44467</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
         <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
         <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44418</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14455</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44425</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
         <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
         <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44432</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>14000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44467</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
         <v>14000</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -504,13 +504,13 @@
         <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
         <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
         <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44467</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44453</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
         <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
         <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
         <v>12000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
         <v>14000</v>
@@ -1167,7 +1167,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
         <v>15000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44421</v>
+        <v>44418</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>15000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>15000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -807,7 +807,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>14000</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,7 +1149,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
         <v>15000</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
         <v>14000</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44425</v>
+        <v>44467</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44418</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44467</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44453</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
         <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
         <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44467</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
         <v>12000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44432</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44418</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44453</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44453</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14455</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
         <v>15000</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44467</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1224,13 +1224,13 @@
         <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
         <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44425</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
         <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
         <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
         <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
         <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44467</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44453</v>
+        <v>44449</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>14455</v>
+        <v>16000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44467</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -720,13 +720,13 @@
         <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44432</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>14455</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44467</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>15000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
         <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44467</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44449</v>
+        <v>44432</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -519,11 +519,11 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44453</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14455</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -519,7 +519,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44421</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K11" t="n">
         <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
@@ -591,7 +591,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44449</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
         <v>15000</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44467</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44453</v>
+        <v>44421</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
         <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
         <v>14000</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -663,11 +663,11 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
         <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44467</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44340</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>25</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44418</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44453</v>
+        <v>44449</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M9" t="n">
-        <v>14455</v>
+        <v>16000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
         <v>15000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44449</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -576,13 +576,13 @@
         <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
@@ -663,7 +663,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44418</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -864,13 +864,13 @@
         <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -936,13 +936,13 @@
         <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44453</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>14455</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>578</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>15000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
@@ -1311,7 +1311,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
         <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44432</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K12" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>13000</v>
+        <v>14455</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44376</v>
+        <v>44467</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
         <v>12000</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K4" t="n">
         <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K5" t="n">
         <v>14000</v>
@@ -735,7 +735,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44421</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,7 +789,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
         <v>15000</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>44376</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1167,11 +1167,11 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44453</v>
+        <v>44421</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
         <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44467</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44467</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44453</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
         <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44453</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
         <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44432</v>
+        <v>45113</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1095,11 +1095,11 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,12 +1315,84 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
       </c>
       <c r="R13" t="inlineStr">
+        <is>
+          <t>Hortaliza</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Mapocho Venta Directa de Santiago</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>44376</v>
+      </c>
+      <c r="E14" t="n">
+        <v>13</v>
+      </c>
+      <c r="F14" t="n">
+        <v>100112026</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Haba</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Sin especificar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Primera</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>15</v>
+      </c>
+      <c r="K14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="L14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="M14" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>$/saco 25 kilos</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Provincia de Limarí</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>480</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>25</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Hortaliza</t>
         </is>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44467</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44340</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44453</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>45113</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45113</v>
+        <v>44467</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44435</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44467</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44340</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44453</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K6" t="n">
         <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45113</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44467</v>
+        <v>45113</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44446</v>
+        <v>44449</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="L2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="M2" t="n">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>520</v>
+        <v>640</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44449</v>
+        <v>44425</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44446</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -792,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45113</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44421</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44467</v>
+        <v>45113</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44425</v>
+        <v>44432</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
         <v>14000</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M2" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44467</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
         <v>15000</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -792,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>45113</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45113</v>
+        <v>44467</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44432</v>
+        <v>44425</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K14" t="n">
         <v>14000</v>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44449</v>
+        <v>45113</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="K2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="L2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="M2" t="n">
-        <v>16000</v>
+        <v>17000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>640</v>
+        <v>680</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44467</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
         <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -792,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44421</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45113</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44449</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>16000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>640</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44432</v>
+        <v>44467</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M14" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45113</v>
+        <v>44418</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44453</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
         <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>45113</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>520</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44453</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -951,7 +951,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,7 +1005,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>14000</v>
@@ -1023,7 +1023,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44418</v>
+        <v>44421</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,7 +1077,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" t="n">
         <v>15000</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44340</v>
+        <v>44446</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>520</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44418</v>
+        <v>44467</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
         <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45113</v>
+        <v>44446</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44467</v>
+        <v>44421</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44432</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -792,13 +792,13 @@
         <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K7" t="n">
         <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44340</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44421</v>
+        <v>44449</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M10" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1152,13 +1152,13 @@
         <v>15</v>
       </c>
       <c r="K11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M11" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44432</v>
+        <v>45113</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M14" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44467</v>
+        <v>44421</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44418</v>
+        <v>45113</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44446</v>
+        <v>44435</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -648,13 +648,13 @@
         <v>15</v>
       </c>
       <c r="K4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M4" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44421</v>
+        <v>44435</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -807,11 +807,11 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
         <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44425</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44449</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>16000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>640</v>
+        <v>520</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44376</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44435</v>
+        <v>44467</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1311,11 +1311,11 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45113</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>17000</v>
+        <v>16000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1387,7 +1387,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45113</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44435</v>
+        <v>45113</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>560</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
         <v>14000</v>
       </c>
       <c r="L5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -735,11 +735,11 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44340</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M7" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44376</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44467</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44453</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>14455</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>578</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44425</v>
+        <v>44446</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="M3" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45113</v>
+        <v>44467</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="K4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="L4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="M4" t="n">
-        <v>17000</v>
+        <v>12000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>680</v>
+        <v>480</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L5" t="n">
         <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44467</v>
+        <v>44449</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>16000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>640</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44435</v>
+        <v>44453</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>14000</v>
+        <v>14455</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>560</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44340</v>
+        <v>45113</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M9" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44446</v>
+        <v>44376</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="L10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="M10" t="n">
-        <v>13000</v>
+        <v>12000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44418</v>
+        <v>44425</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M11" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44432</v>
+        <v>44340</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M12" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44376</v>
+        <v>44435</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M13" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44449</v>
+        <v>44435</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="L14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="M14" t="n">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44425</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>45113</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44453</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L5" t="n">
         <v>15000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>14455</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>578</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44435</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -879,7 +879,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44453</v>
+        <v>44435</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
         <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M8" t="n">
-        <v>14455</v>
+        <v>14000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -951,11 +951,11 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>578</v>
+        <v>560</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45113</v>
+        <v>44340</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>15000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>680</v>
+        <v>600</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44446</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1080,13 +1080,13 @@
         <v>15</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>13000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44418</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>44432</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1239,11 +1239,11 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44376</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1296,13 +1296,13 @@
         <v>15</v>
       </c>
       <c r="K13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M13" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1315,7 +1315,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q13" t="n">
         <v>25</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44449</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
@@ -1365,16 +1365,16 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="K14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M14" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1383,11 +1383,11 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P14" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q14" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44421</v>
+        <v>44467</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="K2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="L2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="M2" t="n">
-        <v>15000</v>
+        <v>12000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>600</v>
+        <v>480</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44446</v>
+        <v>44340</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="L3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M3" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>520</v>
+        <v>600</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44467</v>
+        <v>44421</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44418</v>
+        <v>44449</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="L5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="M5" t="n">
-        <v>15000</v>
+        <v>16000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44449</v>
+        <v>44376</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M6" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44432</v>
+        <v>44418</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="M7" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -879,11 +879,11 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P7" t="n">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="Q7" t="n">
         <v>25</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44453</v>
+        <v>44446</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="K8" t="n">
-        <v>14000</v>
+        <v>13000</v>
       </c>
       <c r="L8" t="n">
-        <v>15000</v>
+        <v>13000</v>
       </c>
       <c r="M8" t="n">
-        <v>14455</v>
+        <v>13000</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>578</v>
+        <v>520</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45113</v>
+        <v>44432</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1005,16 +1005,16 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="L9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="M9" t="n">
-        <v>17000</v>
+        <v>14000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>680</v>
+        <v>560</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44376</v>
+        <v>44453</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K10" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L10" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>12000</v>
+        <v>14455</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>44340</v>
+        <v>45113</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="K12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M12" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>

--- a/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
+++ b/PrecioFrutaHortalizas/Consolidado/logica_diaria/subcojuntos/Hortaliza, Mapocho Venta Directa de Santiago - Haba.xlsx
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>44467</v>
+        <v>44435</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="K2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="L2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="M2" t="n">
-        <v>12000</v>
+        <v>14000</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="Q2" t="n">
         <v>25</v>
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>44340</v>
+        <v>44435</v>
       </c>
       <c r="E3" t="n">
         <v>13</v>
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="K3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="L3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="M3" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -591,11 +591,11 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>Provincia de Limarí</t>
+          <t>Provincia del Elquí</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="Q3" t="n">
         <v>25</v>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>44421</v>
+        <v>45113</v>
       </c>
       <c r="E4" t="n">
         <v>13</v>
@@ -645,16 +645,16 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="L4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="M4" t="n">
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>600</v>
+        <v>680</v>
       </c>
       <c r="Q4" t="n">
         <v>25</v>
@@ -693,7 +693,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>44449</v>
+        <v>44467</v>
       </c>
       <c r="E5" t="n">
         <v>13</v>
@@ -717,16 +717,16 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="L5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="M5" t="n">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>640</v>
+        <v>480</v>
       </c>
       <c r="Q5" t="n">
         <v>25</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>44376</v>
+        <v>44421</v>
       </c>
       <c r="E6" t="n">
         <v>13</v>
@@ -789,16 +789,16 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="L6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="M6" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="Q6" t="n">
         <v>25</v>
@@ -837,7 +837,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>44418</v>
+        <v>44340</v>
       </c>
       <c r="E7" t="n">
         <v>13</v>
@@ -861,7 +861,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
         <v>15000</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>44446</v>
+        <v>44453</v>
       </c>
       <c r="E8" t="n">
         <v>13</v>
@@ -933,16 +933,16 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="K8" t="n">
-        <v>13000</v>
+        <v>14000</v>
       </c>
       <c r="L8" t="n">
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="M8" t="n">
-        <v>13000</v>
+        <v>14455</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>520</v>
+        <v>578</v>
       </c>
       <c r="Q8" t="n">
         <v>25</v>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>44432</v>
+        <v>44376</v>
       </c>
       <c r="E9" t="n">
         <v>13</v>
@@ -1008,13 +1008,13 @@
         <v>15</v>
       </c>
       <c r="K9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="L9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="M9" t="n">
-        <v>14000</v>
+        <v>12000</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1023,11 +1023,11 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>Provincia del Elquí</t>
+          <t>Provincia de Limarí</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>560</v>
+        <v>480</v>
       </c>
       <c r="Q9" t="n">
         <v>25</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>44453</v>
+        <v>44418</v>
       </c>
       <c r="E10" t="n">
         <v>13</v>
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="K10" t="n">
-        <v>14000</v>
+        <v>15000</v>
       </c>
       <c r="L10" t="n">
         <v>15000</v>
       </c>
       <c r="M10" t="n">
-        <v>14455</v>
+        <v>15000</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1099,7 +1099,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>578</v>
+        <v>600</v>
       </c>
       <c r="Q10" t="n">
         <v>25</v>
@@ -1125,7 +1125,7 @@
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>44425</v>
+        <v>44449</v>
       </c>
       <c r="E11" t="n">
         <v>13</v>
@@ -1149,16 +1149,16 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="L11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="M11" t="n">
-        <v>14000</v>
+        <v>16000</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>560</v>
+        <v>640</v>
       </c>
       <c r="Q11" t="n">
         <v>25</v>
@@ -1197,7 +1197,7 @@
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45113</v>
+        <v>44446</v>
       </c>
       <c r="E12" t="n">
         <v>13</v>
@@ -1221,16 +1221,16 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="K12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="L12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="M12" t="n">
-        <v>17000</v>
+        <v>13000</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>680</v>
+        <v>520</v>
       </c>
       <c r="Q12" t="n">
         <v>25</v>
@@ -1269,7 +1269,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>44435</v>
+        <v>44425</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K13" t="n">
         <v>14000</v>
@@ -1341,7 +1341,7 @@
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>44435</v>
+        <v>44432</v>
       </c>
       <c r="E14" t="n">
         <v>13</v>
